--- a/artfynd/A 11085-2025 artfynd.xlsx
+++ b/artfynd/A 11085-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY14"/>
+  <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2188,6 +2188,216 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131289440</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Luvebo 2:1, Ög</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>567626</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6509625</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131289461</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Luvebo 2:1, Ög</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>567680</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6509667</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Norrköping</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Östergötland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Simonstorp</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Anette Källman</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
